--- a/Data.xlsx
+++ b/Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="15">
   <si>
     <t>alphaBeta</t>
   </si>
@@ -75,7 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,16 +93,39 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -125,30 +148,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -164,6 +308,1150 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Zależność czasu od</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> głębokości</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minMax</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$120:$B$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$120:$C$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-479E-4DB4-AA0E-A938D3827B34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$119</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>alphaBeta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Arkusz1!$B$120:$B$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$120:$D$125</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-479E-4DB4-AA0E-A938D3827B34}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="359060792"/>
+        <c:axId val="359061120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="359060792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>głębokość</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359061120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="359061120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>czas [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pl-PL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="359060792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>108857</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B603D3DD-22D7-4BB8-B6F6-13AE289799E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:AB83"/>
+  <dimension ref="B2:AB125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="Q21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28:V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,38 +1774,38 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
     </row>
     <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
@@ -530,11 +1818,11 @@
       <c r="G5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
@@ -552,11 +1840,11 @@
       <c r="G6" s="1">
         <v>75</v>
       </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
@@ -574,11 +1862,11 @@
       <c r="G7" s="1">
         <v>79</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
@@ -596,11 +1884,11 @@
       <c r="G8" s="1">
         <v>66</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
@@ -618,11 +1906,11 @@
       <c r="G9" s="1">
         <v>72</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
@@ -640,93 +1928,93 @@
       <c r="G10" s="1">
         <v>78</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
     </row>
     <row r="17" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
@@ -739,11 +2027,11 @@
       <c r="G19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
@@ -761,11 +2049,11 @@
       <c r="G20" s="1">
         <v>65</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
     </row>
     <row r="21" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
@@ -783,11 +2071,11 @@
       <c r="G21" s="1">
         <v>61</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
     </row>
     <row r="22" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
@@ -805,11 +2093,11 @@
       <c r="G22" s="1">
         <v>74</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
     <row r="23" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C23" s="1">
@@ -827,11 +2115,11 @@
       <c r="G23" s="1">
         <v>68</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
     </row>
     <row r="24" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C24" s="1">
@@ -849,17 +2137,17 @@
       <c r="G24" s="1">
         <v>62</v>
       </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
     </row>
     <row r="26" spans="3:28" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G26" s="4" t="s">
+      <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="W26" s="4" t="s">
+      <c r="W26" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -867,130 +2155,114 @@
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
       <c r="I28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2" t="s">
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" s="7"/>
       <c r="R28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S28" s="2" t="s">
+      <c r="S28" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="X28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB28" s="2"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
     </row>
     <row r="29" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
       <c r="I29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
       <c r="R29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="2" t="s">
+      <c r="S29" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2" t="s">
+      <c r="T29" s="7"/>
+      <c r="U29" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="V29" s="2"/>
-      <c r="X29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB29" s="2"/>
+      <c r="V29" s="7"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
     </row>
     <row r="30" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
+      <c r="D30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="I30" s="3" t="s">
+      <c r="G30" s="7"/>
+      <c r="I30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2" t="s">
+      <c r="J30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="R30" s="3" t="s">
+      <c r="M30" s="7"/>
+      <c r="R30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2" t="s">
+      <c r="S30" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V30" s="2"/>
-      <c r="X30" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="2"/>
+      <c r="V30" s="7"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
     </row>
     <row r="31" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1003,7 +2275,7 @@
       <c r="G31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="8"/>
       <c r="J31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1016,7 +2288,7 @@
       <c r="M31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R31" s="3"/>
+      <c r="R31" s="8"/>
       <c r="S31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1029,45 +2301,59 @@
       <c r="V31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB31" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C32" s="1">
         <v>1</v>
       </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="D32" s="1">
+        <v>50</v>
+      </c>
+      <c r="E32" s="1">
+        <v>65</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="20">
+        <v>75</v>
+      </c>
       <c r="I32" s="1">
         <v>1</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="J32" s="1">
+        <v>48</v>
+      </c>
+      <c r="K32" s="20">
+        <v>80</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>60</v>
+      </c>
       <c r="R32" s="1">
         <v>1</v>
       </c>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="X32" s="1">
-        <v>1</v>
-      </c>
+      <c r="S32" s="1">
+        <v>51</v>
+      </c>
+      <c r="T32" s="1">
+        <v>54</v>
+      </c>
+      <c r="U32" s="1">
+        <v>1</v>
+      </c>
+      <c r="V32" s="20">
+        <v>86</v>
+      </c>
+      <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
@@ -1077,27 +2363,49 @@
       <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="D33" s="1">
+        <v>56</v>
+      </c>
+      <c r="E33" s="1">
+        <v>50</v>
+      </c>
+      <c r="F33" s="1">
+        <v>3</v>
+      </c>
+      <c r="G33" s="20">
+        <v>90</v>
+      </c>
       <c r="I33" s="1">
         <v>2</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="J33" s="1">
+        <v>57</v>
+      </c>
+      <c r="K33" s="20">
+        <v>93</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4</v>
+      </c>
+      <c r="M33" s="1">
+        <v>47</v>
+      </c>
       <c r="R33" s="1">
         <v>2</v>
       </c>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="X33" s="1">
-        <v>2</v>
-      </c>
+      <c r="S33" s="1">
+        <v>53</v>
+      </c>
+      <c r="T33" s="1">
+        <v>56</v>
+      </c>
+      <c r="U33" s="1">
+        <v>4</v>
+      </c>
+      <c r="V33" s="20">
+        <v>84</v>
+      </c>
+      <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
@@ -1107,27 +2415,49 @@
       <c r="C34" s="1">
         <v>3</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="D34" s="1">
+        <v>103</v>
+      </c>
+      <c r="E34" s="1">
+        <v>61</v>
+      </c>
+      <c r="F34" s="1">
+        <v>25</v>
+      </c>
+      <c r="G34" s="20">
+        <v>79</v>
+      </c>
       <c r="I34" s="1">
         <v>3</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="J34" s="1">
+        <v>96</v>
+      </c>
+      <c r="K34" s="20">
+        <v>94</v>
+      </c>
+      <c r="L34" s="1">
+        <v>27</v>
+      </c>
+      <c r="M34" s="1">
+        <v>46</v>
+      </c>
       <c r="R34" s="1">
         <v>3</v>
       </c>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="X34" s="1">
-        <v>3</v>
-      </c>
+      <c r="S34" s="1">
+        <v>95</v>
+      </c>
+      <c r="T34" s="1">
+        <v>61</v>
+      </c>
+      <c r="U34" s="1">
+        <v>33</v>
+      </c>
+      <c r="V34" s="20">
+        <v>79</v>
+      </c>
+      <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
@@ -1137,27 +2467,49 @@
       <c r="C35" s="1">
         <v>4</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="D35" s="1">
+        <v>692</v>
+      </c>
+      <c r="E35" s="20">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1">
+        <v>153</v>
+      </c>
+      <c r="G35" s="1">
+        <v>67</v>
+      </c>
       <c r="I35" s="1">
         <v>4</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="J35" s="1">
+        <v>559</v>
+      </c>
+      <c r="K35" s="20">
+        <v>91</v>
+      </c>
+      <c r="L35" s="1">
+        <v>163</v>
+      </c>
+      <c r="M35" s="1">
+        <v>49</v>
+      </c>
       <c r="R35" s="1">
         <v>4</v>
       </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="X35" s="1">
-        <v>4</v>
-      </c>
+      <c r="S35" s="1">
+        <v>688</v>
+      </c>
+      <c r="T35" s="1">
+        <v>63</v>
+      </c>
+      <c r="U35" s="1">
+        <v>135</v>
+      </c>
+      <c r="V35" s="20">
+        <v>77</v>
+      </c>
+      <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
@@ -1167,27 +2519,49 @@
       <c r="C36" s="1">
         <v>5</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="D36" s="1">
+        <v>13109</v>
+      </c>
+      <c r="E36" s="1">
+        <v>61</v>
+      </c>
+      <c r="F36" s="1">
+        <v>827</v>
+      </c>
+      <c r="G36" s="20">
+        <v>79</v>
+      </c>
       <c r="I36" s="1">
         <v>5</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="J36" s="1">
+        <v>10712</v>
+      </c>
+      <c r="K36" s="20">
+        <v>90</v>
+      </c>
+      <c r="L36" s="1">
+        <v>935</v>
+      </c>
+      <c r="M36" s="1">
+        <v>50</v>
+      </c>
       <c r="R36" s="1">
         <v>5</v>
       </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="X36" s="1">
-        <v>5</v>
-      </c>
+      <c r="S36" s="1">
+        <v>12880</v>
+      </c>
+      <c r="T36" s="1">
+        <v>57</v>
+      </c>
+      <c r="U36" s="1">
+        <v>897</v>
+      </c>
+      <c r="V36" s="20">
+        <v>83</v>
+      </c>
+      <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
@@ -1197,130 +2571,114 @@
       <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
       <c r="I41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2" t="s">
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" s="7"/>
       <c r="R41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S41" s="2" t="s">
+      <c r="S41" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="X41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB41" s="2"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
     </row>
     <row r="42" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
       <c r="I42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
       <c r="R42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S42" s="2" t="s">
+      <c r="S42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2" t="s">
+      <c r="T42" s="7"/>
+      <c r="U42" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="V42" s="2"/>
-      <c r="X42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z42" s="2"/>
-      <c r="AA42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB42" s="2"/>
+      <c r="V42" s="7"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
     </row>
     <row r="43" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2" t="s">
+      <c r="D43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="I43" s="3" t="s">
+      <c r="G43" s="7"/>
+      <c r="I43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2" t="s">
+      <c r="J43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="R43" s="3" t="s">
+      <c r="M43" s="7"/>
+      <c r="R43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2" t="s">
+      <c r="S43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V43" s="2"/>
-      <c r="X43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="2"/>
-      <c r="AA43" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="2"/>
+      <c r="V43" s="7"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
     </row>
     <row r="44" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1333,7 +2691,7 @@
       <c r="G44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I44" s="3"/>
+      <c r="I44" s="8"/>
       <c r="J44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1346,7 +2704,7 @@
       <c r="M44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3"/>
+      <c r="R44" s="8"/>
       <c r="S44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1359,45 +2717,59 @@
       <c r="V44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z44" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB44" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
+      <c r="D45" s="1">
+        <v>57</v>
+      </c>
+      <c r="E45" s="1">
+        <v>65</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="20">
+        <v>75</v>
+      </c>
       <c r="I45" s="1">
         <v>1</v>
       </c>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="J45" s="1">
+        <v>52</v>
+      </c>
+      <c r="K45" s="20">
+        <v>70</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="20">
+        <v>70</v>
+      </c>
       <c r="R45" s="1">
         <v>1</v>
       </c>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="X45" s="1">
-        <v>1</v>
-      </c>
+      <c r="S45" s="1">
+        <v>48</v>
+      </c>
+      <c r="T45" s="1">
+        <v>50</v>
+      </c>
+      <c r="U45" s="1">
+        <v>2</v>
+      </c>
+      <c r="V45" s="20">
+        <v>90</v>
+      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
@@ -1407,27 +2779,49 @@
       <c r="C46" s="1">
         <v>2</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
+      <c r="D46" s="1">
+        <v>59</v>
+      </c>
+      <c r="E46" s="1">
+        <v>58</v>
+      </c>
+      <c r="F46" s="1">
+        <v>7</v>
+      </c>
+      <c r="G46" s="20">
+        <v>82</v>
+      </c>
       <c r="I46" s="1">
         <v>2</v>
       </c>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="J46" s="1">
+        <v>63</v>
+      </c>
+      <c r="K46" s="20">
+        <v>82</v>
+      </c>
+      <c r="L46" s="1">
+        <v>4</v>
+      </c>
+      <c r="M46" s="1">
+        <v>58</v>
+      </c>
       <c r="R46" s="1">
         <v>2</v>
       </c>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="X46" s="1">
-        <v>2</v>
-      </c>
+      <c r="S46" s="1">
+        <v>51</v>
+      </c>
+      <c r="T46" s="1">
+        <v>56</v>
+      </c>
+      <c r="U46" s="1">
+        <v>6</v>
+      </c>
+      <c r="V46" s="20">
+        <v>84</v>
+      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
@@ -1437,27 +2831,49 @@
       <c r="C47" s="1">
         <v>3</v>
       </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
+      <c r="D47" s="1">
+        <v>99</v>
+      </c>
+      <c r="E47" s="1">
+        <v>55</v>
+      </c>
+      <c r="F47" s="1">
+        <v>30</v>
+      </c>
+      <c r="G47" s="20">
+        <v>85</v>
+      </c>
       <c r="I47" s="1">
         <v>3</v>
       </c>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="J47" s="1">
+        <v>95</v>
+      </c>
+      <c r="K47" s="20">
+        <v>76</v>
+      </c>
+      <c r="L47" s="1">
+        <v>24</v>
+      </c>
+      <c r="M47" s="1">
+        <v>64</v>
+      </c>
       <c r="R47" s="1">
         <v>3</v>
       </c>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="X47" s="1">
-        <v>3</v>
-      </c>
+      <c r="S47" s="1">
+        <v>88</v>
+      </c>
+      <c r="T47" s="1">
+        <v>49</v>
+      </c>
+      <c r="U47" s="1">
+        <v>22</v>
+      </c>
+      <c r="V47" s="20">
+        <v>91</v>
+      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
@@ -1467,27 +2883,49 @@
       <c r="C48" s="1">
         <v>4</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
+      <c r="D48" s="1">
+        <v>639</v>
+      </c>
+      <c r="E48" s="1">
+        <v>63</v>
+      </c>
+      <c r="F48" s="1">
+        <v>125</v>
+      </c>
+      <c r="G48" s="20">
+        <v>77</v>
+      </c>
       <c r="I48" s="1">
         <v>4</v>
       </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="J48" s="1">
+        <v>568</v>
+      </c>
+      <c r="K48" s="20">
+        <v>71</v>
+      </c>
+      <c r="L48" s="1">
+        <v>138</v>
+      </c>
+      <c r="M48" s="1">
+        <v>69</v>
+      </c>
       <c r="R48" s="1">
         <v>4</v>
       </c>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="X48" s="1">
-        <v>4</v>
-      </c>
+      <c r="S48" s="1">
+        <v>659</v>
+      </c>
+      <c r="T48" s="1">
+        <v>50</v>
+      </c>
+      <c r="U48" s="1">
+        <v>129</v>
+      </c>
+      <c r="V48" s="20">
+        <v>90</v>
+      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
@@ -1497,27 +2935,49 @@
       <c r="C49" s="1">
         <v>5</v>
       </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
+      <c r="D49" s="1">
+        <v>12677</v>
+      </c>
+      <c r="E49" s="1">
+        <v>48</v>
+      </c>
+      <c r="F49" s="1">
+        <v>700</v>
+      </c>
+      <c r="G49" s="20">
+        <v>92</v>
+      </c>
       <c r="I49" s="1">
         <v>5</v>
       </c>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="J49" s="1">
+        <v>10805</v>
+      </c>
+      <c r="K49" s="20">
+        <v>83</v>
+      </c>
+      <c r="L49" s="1">
+        <v>959</v>
+      </c>
+      <c r="M49" s="1">
+        <v>57</v>
+      </c>
       <c r="R49" s="1">
         <v>5</v>
       </c>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="X49" s="1">
-        <v>5</v>
-      </c>
+      <c r="S49" s="1">
+        <v>12997</v>
+      </c>
+      <c r="T49" s="1">
+        <v>51</v>
+      </c>
+      <c r="U49" s="1">
+        <v>848</v>
+      </c>
+      <c r="V49" s="20">
+        <v>89</v>
+      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
@@ -1527,22 +2987,22 @@
       <c r="C54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
       <c r="I54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2" t="s">
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="W54" s="5" t="s">
+      <c r="M54" s="7"/>
+      <c r="W54" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1550,67 +3010,67 @@
       <c r="C55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2" t="s">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="2"/>
+      <c r="G55" s="7"/>
       <c r="I55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2" t="s">
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M55" s="2"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2" t="s">
+      <c r="D56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="I56" s="3" t="s">
+      <c r="G56" s="7"/>
+      <c r="I56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2" t="s">
+      <c r="J56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M56" s="2"/>
+      <c r="M56" s="7"/>
       <c r="R56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S56" s="2" t="s">
+      <c r="S56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="6"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="4"/>
       <c r="X56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
-      <c r="AA56" s="2" t="s">
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AB56" s="2"/>
+      <c r="AB56" s="7"/>
     </row>
     <row r="57" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C57" s="3"/>
+      <c r="C57" s="8"/>
       <c r="D57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1623,7 +3083,7 @@
       <c r="G57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I57" s="3"/>
+      <c r="I57" s="8"/>
       <c r="J57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1636,46 +3096,62 @@
       <c r="M57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="R57" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2" t="s">
+      <c r="S57" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V57" s="2"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="3" t="s">
+      <c r="V57" s="7"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z57" s="2"/>
-      <c r="AA57" s="2" t="s">
+      <c r="Y57" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AB57" s="2"/>
+      <c r="AB57" s="7"/>
     </row>
     <row r="58" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>1</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>60</v>
+      </c>
+      <c r="F58" s="1">
+        <v>52</v>
+      </c>
+      <c r="G58" s="20">
+        <v>90</v>
+      </c>
       <c r="I58" s="1">
         <v>1</v>
       </c>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="R58" s="3"/>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+      <c r="K58" s="20">
+        <v>75</v>
+      </c>
+      <c r="L58" s="1">
+        <v>52</v>
+      </c>
+      <c r="M58" s="1">
+        <v>65</v>
+      </c>
+      <c r="R58" s="8"/>
       <c r="S58" s="1" t="s">
         <v>3</v>
       </c>
@@ -1688,8 +3164,8 @@
       <c r="V58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="6"/>
-      <c r="X58" s="3"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="8"/>
       <c r="Y58" s="1" t="s">
         <v>3</v>
       </c>
@@ -1707,17 +3183,33 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
+      <c r="D59" s="1">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1">
+        <v>47</v>
+      </c>
+      <c r="F59" s="1">
+        <v>59</v>
+      </c>
+      <c r="G59" s="20">
+        <v>93</v>
+      </c>
       <c r="I59" s="1">
         <v>2</v>
       </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+      <c r="J59" s="1">
+        <v>3</v>
+      </c>
+      <c r="K59" s="20">
+        <v>90</v>
+      </c>
+      <c r="L59" s="1">
+        <v>57</v>
+      </c>
+      <c r="M59" s="1">
+        <v>50</v>
+      </c>
       <c r="R59" s="1">
         <v>1</v>
       </c>
@@ -1725,7 +3217,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="6"/>
+      <c r="W59" s="4"/>
       <c r="X59" s="1">
         <v>1</v>
       </c>
@@ -1738,17 +3230,33 @@
       <c r="C60" s="1">
         <v>3</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
+      <c r="D60" s="1">
+        <v>45</v>
+      </c>
+      <c r="E60" s="1">
+        <v>46</v>
+      </c>
+      <c r="F60" s="1">
+        <v>108</v>
+      </c>
+      <c r="G60" s="20">
+        <v>94</v>
+      </c>
       <c r="I60" s="1">
         <v>3</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="J60" s="1">
+        <v>41</v>
+      </c>
+      <c r="K60" s="20">
+        <v>79</v>
+      </c>
+      <c r="L60" s="1">
+        <v>84</v>
+      </c>
+      <c r="M60" s="1">
+        <v>61</v>
+      </c>
       <c r="R60" s="1">
         <v>2</v>
       </c>
@@ -1756,7 +3264,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-      <c r="W60" s="6"/>
+      <c r="W60" s="4"/>
       <c r="X60" s="1">
         <v>2</v>
       </c>
@@ -1769,17 +3277,33 @@
       <c r="C61" s="1">
         <v>4</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
+      <c r="D61" s="1">
+        <v>626</v>
+      </c>
+      <c r="E61" s="1">
+        <v>49</v>
+      </c>
+      <c r="F61" s="1">
+        <v>196</v>
+      </c>
+      <c r="G61" s="20">
+        <v>91</v>
+      </c>
       <c r="I61" s="1">
         <v>4</v>
       </c>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+      <c r="J61" s="1">
+        <v>352</v>
+      </c>
+      <c r="K61" s="1">
+        <v>67</v>
+      </c>
+      <c r="L61" s="1">
+        <v>233</v>
+      </c>
+      <c r="M61" s="20">
+        <v>73</v>
+      </c>
       <c r="R61" s="1">
         <v>3</v>
       </c>
@@ -1787,7 +3311,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
-      <c r="W61" s="6"/>
+      <c r="W61" s="4"/>
       <c r="X61" s="1">
         <v>3</v>
       </c>
@@ -1800,17 +3324,33 @@
       <c r="C62" s="1">
         <v>5</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
+      <c r="D62" s="1">
+        <v>12808</v>
+      </c>
+      <c r="E62" s="1">
+        <v>50</v>
+      </c>
+      <c r="F62" s="1">
+        <v>827</v>
+      </c>
+      <c r="G62" s="20">
+        <v>90</v>
+      </c>
       <c r="I62" s="1">
         <v>5</v>
       </c>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
+      <c r="J62" s="1">
+        <v>10668</v>
+      </c>
+      <c r="K62" s="20">
+        <v>79</v>
+      </c>
+      <c r="L62" s="1">
+        <v>934</v>
+      </c>
+      <c r="M62" s="1">
+        <v>61</v>
+      </c>
       <c r="R62" s="1">
         <v>4</v>
       </c>
@@ -1818,7 +3358,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-      <c r="W62" s="6"/>
+      <c r="W62" s="4"/>
       <c r="X62" s="1">
         <v>4</v>
       </c>
@@ -1828,100 +3368,100 @@
       <c r="AB62" s="1"/>
     </row>
     <row r="63" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
-      <c r="AA63" s="6"/>
-      <c r="AB63" s="6"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
     </row>
     <row r="66" spans="3:28" x14ac:dyDescent="0.25">
       <c r="R66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S66" s="2" t="s">
+      <c r="S66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
       <c r="X66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-      <c r="AA66" s="2" t="s">
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AB66" s="2"/>
+      <c r="AB66" s="7"/>
     </row>
     <row r="67" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
       <c r="I67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2" t="s">
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M67" s="2"/>
-      <c r="R67" s="3" t="s">
+      <c r="M67" s="7"/>
+      <c r="R67" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="S67" s="2" t="s">
+      <c r="S67" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2" t="s">
+      <c r="T67" s="7"/>
+      <c r="U67" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V67" s="2"/>
-      <c r="X67" s="3" t="s">
+      <c r="V67" s="7"/>
+      <c r="X67" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="Y67" s="2" t="s">
+      <c r="Y67" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="Z67" s="2"/>
-      <c r="AA67" s="2" t="s">
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AB67" s="2"/>
+      <c r="AB67" s="7"/>
     </row>
     <row r="68" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2" t="s">
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G68" s="2"/>
+      <c r="G68" s="7"/>
       <c r="I68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2" t="s">
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M68" s="2"/>
-      <c r="R68" s="3"/>
+      <c r="M68" s="7"/>
+      <c r="R68" s="8"/>
       <c r="S68" s="1" t="s">
         <v>3</v>
       </c>
@@ -1934,7 +3474,7 @@
       <c r="V68" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X68" s="3"/>
+      <c r="X68" s="8"/>
       <c r="Y68" s="1" t="s">
         <v>3</v>
       </c>
@@ -1949,28 +3489,28 @@
       </c>
     </row>
     <row r="69" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2" t="s">
+      <c r="D69" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G69" s="2"/>
-      <c r="I69" s="3" t="s">
+      <c r="G69" s="7"/>
+      <c r="I69" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2" t="s">
+      <c r="J69" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M69" s="2"/>
+      <c r="M69" s="7"/>
       <c r="R69" s="1">
         <v>1</v>
       </c>
@@ -1987,7 +3527,7 @@
       <c r="AB69" s="1"/>
     </row>
     <row r="70" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C70" s="3"/>
+      <c r="C70" s="8"/>
       <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
@@ -2000,7 +3540,7 @@
       <c r="G70" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I70" s="3"/>
+      <c r="I70" s="8"/>
       <c r="J70" s="1" t="s">
         <v>3</v>
       </c>
@@ -2032,17 +3572,33 @@
       <c r="C71" s="1">
         <v>1</v>
       </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="D71" s="1">
+        <v>1</v>
+      </c>
+      <c r="E71" s="20">
+        <v>70</v>
+      </c>
+      <c r="F71" s="1">
+        <v>51</v>
+      </c>
+      <c r="G71" s="20">
+        <v>70</v>
+      </c>
       <c r="I71" s="1">
         <v>1</v>
       </c>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
+      <c r="J71" s="1">
+        <v>1</v>
+      </c>
+      <c r="K71" s="20">
+        <v>75</v>
+      </c>
+      <c r="L71" s="1">
+        <v>48</v>
+      </c>
+      <c r="M71" s="1">
+        <v>65</v>
+      </c>
       <c r="R71" s="1">
         <v>3</v>
       </c>
@@ -2062,17 +3618,33 @@
       <c r="C72" s="1">
         <v>2</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
+      <c r="D72" s="1">
+        <v>3</v>
+      </c>
+      <c r="E72" s="1">
+        <v>58</v>
+      </c>
+      <c r="F72" s="1">
+        <v>53</v>
+      </c>
+      <c r="G72" s="20">
+        <v>82</v>
+      </c>
       <c r="I72" s="1">
         <v>2</v>
       </c>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
+      <c r="J72" s="1">
+        <v>5</v>
+      </c>
+      <c r="K72" s="20">
+        <v>82</v>
+      </c>
+      <c r="L72" s="1">
+        <v>59</v>
+      </c>
+      <c r="M72" s="1">
+        <v>58</v>
+      </c>
       <c r="R72" s="1">
         <v>4</v>
       </c>
@@ -2092,49 +3664,97 @@
       <c r="C73" s="1">
         <v>3</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="D73" s="1">
+        <v>38</v>
+      </c>
+      <c r="E73" s="1">
+        <v>64</v>
+      </c>
+      <c r="F73" s="1">
+        <v>93</v>
+      </c>
+      <c r="G73" s="20">
+        <v>76</v>
+      </c>
       <c r="I73" s="1">
         <v>3</v>
       </c>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
+      <c r="J73" s="1">
+        <v>45</v>
+      </c>
+      <c r="K73" s="20">
+        <v>85</v>
+      </c>
+      <c r="L73" s="1">
+        <v>82</v>
+      </c>
+      <c r="M73" s="1">
+        <v>55</v>
+      </c>
     </row>
     <row r="74" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C74" s="1">
         <v>4</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="D74" s="1">
+        <v>589</v>
+      </c>
+      <c r="E74" s="1">
+        <v>69</v>
+      </c>
+      <c r="F74" s="1">
+        <v>216</v>
+      </c>
+      <c r="G74" s="20">
+        <v>71</v>
+      </c>
       <c r="I74" s="1">
         <v>4</v>
       </c>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
+      <c r="J74" s="1">
+        <v>486</v>
+      </c>
+      <c r="K74" s="20">
+        <v>77</v>
+      </c>
+      <c r="L74" s="1">
+        <v>221</v>
+      </c>
+      <c r="M74" s="1">
+        <v>63</v>
+      </c>
     </row>
     <row r="75" spans="3:28" x14ac:dyDescent="0.25">
       <c r="C75" s="1">
         <v>5</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
+      <c r="D75" s="1">
+        <v>13168</v>
+      </c>
+      <c r="E75" s="1">
+        <v>57</v>
+      </c>
+      <c r="F75" s="1">
+        <v>832</v>
+      </c>
+      <c r="G75" s="20">
+        <v>83</v>
+      </c>
       <c r="I75" s="1">
         <v>5</v>
       </c>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
+      <c r="J75" s="1">
+        <v>11050</v>
+      </c>
+      <c r="K75" s="20">
+        <v>92</v>
+      </c>
+      <c r="L75" s="1">
+        <v>919</v>
+      </c>
+      <c r="M75" s="1">
+        <v>48</v>
+      </c>
     </row>
     <row r="79" spans="3:28" x14ac:dyDescent="0.25">
       <c r="K79" s="1"/>
@@ -2151,63 +3771,307 @@
     <row r="83" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K83" s="1"/>
     </row>
+    <row r="106" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C107" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="14"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="14"/>
+    </row>
+    <row r="108" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C108" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" s="14"/>
+      <c r="F108" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G108" s="14"/>
+    </row>
+    <row r="109" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C109" s="16"/>
+      <c r="D109" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C110" s="11">
+        <v>1</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0</v>
+      </c>
+      <c r="E110" s="12">
+        <v>102</v>
+      </c>
+      <c r="F110" s="12">
+        <v>0</v>
+      </c>
+      <c r="G110" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C111" s="11">
+        <v>2</v>
+      </c>
+      <c r="D111" s="12">
+        <v>20</v>
+      </c>
+      <c r="E111" s="12">
+        <v>97</v>
+      </c>
+      <c r="F111" s="12">
+        <v>0</v>
+      </c>
+      <c r="G111" s="12">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="112" spans="3:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C112" s="11">
+        <v>3</v>
+      </c>
+      <c r="D112" s="12">
+        <v>116</v>
+      </c>
+      <c r="E112" s="12">
+        <v>104</v>
+      </c>
+      <c r="F112" s="12">
+        <v>40</v>
+      </c>
+      <c r="G112" s="12">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="11">
+        <v>4</v>
+      </c>
+      <c r="D113" s="12">
+        <v>2325</v>
+      </c>
+      <c r="E113" s="12">
+        <v>105</v>
+      </c>
+      <c r="F113" s="12">
+        <v>466</v>
+      </c>
+      <c r="G113" s="12">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C114" s="11">
+        <v>5</v>
+      </c>
+      <c r="D114" s="12">
+        <v>80978</v>
+      </c>
+      <c r="E114" s="12">
+        <v>118</v>
+      </c>
+      <c r="F114" s="12">
+        <v>4041</v>
+      </c>
+      <c r="G114" s="12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="C115" s="17"/>
+    </row>
+    <row r="118" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H119" s="12">
+        <v>1</v>
+      </c>
+      <c r="I119" s="12">
+        <v>65</v>
+      </c>
+      <c r="J119" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="16"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="18"/>
+      <c r="H120" s="12">
+        <v>5</v>
+      </c>
+      <c r="I120" s="12">
+        <v>61</v>
+      </c>
+      <c r="J120" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="11">
+        <v>1</v>
+      </c>
+      <c r="C121" s="12">
+        <v>1</v>
+      </c>
+      <c r="D121" s="12">
+        <v>1</v>
+      </c>
+      <c r="H121" s="12">
+        <v>48</v>
+      </c>
+      <c r="I121" s="12">
+        <v>74</v>
+      </c>
+      <c r="J121" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="11">
+        <v>2</v>
+      </c>
+      <c r="C122" s="12">
+        <v>5</v>
+      </c>
+      <c r="D122" s="12">
+        <v>5</v>
+      </c>
+      <c r="H122" s="12">
+        <v>701</v>
+      </c>
+      <c r="I122" s="12">
+        <v>68</v>
+      </c>
+      <c r="J122" s="12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="11">
+        <v>3</v>
+      </c>
+      <c r="C123" s="12">
+        <v>48</v>
+      </c>
+      <c r="D123" s="12">
+        <v>30</v>
+      </c>
+      <c r="H123" s="12">
+        <v>13229</v>
+      </c>
+      <c r="I123" s="12">
+        <v>62</v>
+      </c>
+      <c r="J123" s="12">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="11">
+        <v>4</v>
+      </c>
+      <c r="C124" s="12">
+        <v>701</v>
+      </c>
+      <c r="D124" s="12">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="11">
+        <v>5</v>
+      </c>
+      <c r="C125" s="12">
+        <v>13229</v>
+      </c>
+      <c r="D125" s="12">
+        <v>870</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="124">
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="Y66:Z66"/>
-    <mergeCell ref="AA66:AB66"/>
-    <mergeCell ref="R67:R68"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="U67:V67"/>
-    <mergeCell ref="X67:X68"/>
-    <mergeCell ref="Y67:Z67"/>
-    <mergeCell ref="AA67:AB67"/>
-    <mergeCell ref="S56:T56"/>
-    <mergeCell ref="U56:V56"/>
-    <mergeCell ref="Y56:Z56"/>
-    <mergeCell ref="AA56:AB56"/>
-    <mergeCell ref="X57:X58"/>
-    <mergeCell ref="Y57:Z57"/>
-    <mergeCell ref="AA57:AB57"/>
-    <mergeCell ref="S57:T57"/>
-    <mergeCell ref="U57:V57"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="R43:R44"/>
-    <mergeCell ref="S43:T43"/>
-    <mergeCell ref="U43:V43"/>
-    <mergeCell ref="X43:X44"/>
-    <mergeCell ref="Y43:Z43"/>
-    <mergeCell ref="AA43:AB43"/>
-    <mergeCell ref="S41:T41"/>
-    <mergeCell ref="U41:V41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB41"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="Y28:Z28"/>
-    <mergeCell ref="AA28:AB28"/>
-    <mergeCell ref="Y29:Z29"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="X30:X31"/>
-    <mergeCell ref="Y30:Z30"/>
-    <mergeCell ref="AA30:AB30"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:V29"/>
+  <mergeCells count="132">
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="B119:B120"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="J41:K41"/>
     <mergeCell ref="R30:R31"/>
     <mergeCell ref="S30:T30"/>
     <mergeCell ref="U30:V30"/>
@@ -2231,54 +4095,64 @@
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="J43:K43"/>
     <mergeCell ref="L43:M43"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="Y28:Z28"/>
+    <mergeCell ref="AA28:AB28"/>
+    <mergeCell ref="Y29:Z29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="X30:X31"/>
+    <mergeCell ref="Y30:Z30"/>
+    <mergeCell ref="AA30:AB30"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="R43:R44"/>
+    <mergeCell ref="S43:T43"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="X43:X44"/>
+    <mergeCell ref="Y43:Z43"/>
+    <mergeCell ref="AA43:AB43"/>
+    <mergeCell ref="S41:T41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB41"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="S56:T56"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="Y56:Z56"/>
+    <mergeCell ref="AA56:AB56"/>
+    <mergeCell ref="X57:X58"/>
+    <mergeCell ref="Y57:Z57"/>
+    <mergeCell ref="AA57:AB57"/>
+    <mergeCell ref="S57:T57"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="Y66:Z66"/>
+    <mergeCell ref="AA66:AB66"/>
+    <mergeCell ref="R67:R68"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="U67:V67"/>
+    <mergeCell ref="X67:X68"/>
+    <mergeCell ref="Y67:Z67"/>
+    <mergeCell ref="AA67:AB67"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>